--- a/downloaded_files/GENS249_Lecture-35852.xlsx
+++ b/downloaded_files/GENS249_Lecture-35852.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,6 +33,15 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>1210181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>أروى شريف إبراهيم نبيل محمد طلعت أبوحشيش</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Arwa Sherif Ibrahim Nabil Mohammad Talaat Abo Hashish</x:t>
+  </x:si>
+  <x:si>
     <x:t>4230139</x:t>
   </x:si>
   <x:si>
@@ -87,12 +96,39 @@
     <x:t>ANTON</x:t>
   </x:si>
   <x:si>
+    <x:t>1200850</x:t>
+  </x:si>
+  <x:si>
+    <x:t>رنا شريف سعيد العتربي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rana sherif said eletriby</x:t>
+  </x:si>
+  <x:si>
     <x:t>4240017</x:t>
   </x:si>
   <x:si>
     <x:t>زياد خالد سيف الله محمد</x:t>
   </x:si>
   <x:si>
+    <x:t>1210139</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سارة حسن بكر محمد رشوان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sarah Hassan Bakr Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210143</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سلمى مدحت عبد الحكم شبل على</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salma Medhat AbdelHakam Shebl</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230057</x:t>
   </x:si>
   <x:si>
@@ -174,6 +210,15 @@
     <x:t>Nadin Yaser Mohamed Ahmed Elsayed</x:t>
   </x:si>
   <x:si>
+    <x:t>1210317</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نور شريف اسماعيل محمد عبد السميع</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nour Sherif Ismail Mohamed Abdel-Samie</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230125</x:t>
   </x:si>
   <x:si>
@@ -181,6 +226,15 @@
   </x:si>
   <x:si>
     <x:t>Nourhan Rami Mahmoud Bakr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210323</x:t>
+  </x:si>
+  <x:si>
+    <x:t>هنا ممدوح جابر عبده</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hana Mamdouh Gaber Abdo</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -296,7 +350,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -596,7 +650,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T18"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -604,8 +658,8 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="32.900625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="48.080625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="35.400625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="51.310625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -687,7 +741,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45906.6644641204</x:v>
+        <x:v>45922.5365830208</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -719,7 +773,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.4191208333</x:v>
+        <x:v>45906.6644641204</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -751,7 +805,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.4308173264</x:v>
+        <x:v>45907.4191208333</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -783,7 +837,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45917.0605690625</x:v>
+        <x:v>45907.4308173264</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -815,7 +869,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45917.0571944097</x:v>
+        <x:v>45917.0605690625</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -847,7 +901,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4358638079</x:v>
+        <x:v>45917.0571944097</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -875,9 +929,11 @@
       <x:c r="C8" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s"/>
+      <x:c r="D8" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6675648148</x:v>
+        <x:v>45907.4358638079</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -900,16 +956,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4213356481</x:v>
+        <x:v>45922.5671027778</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -932,16 +988,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D10" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
+      <x:c r="D10" s="2" t="s"/>
       <x:c r="E10" s="3">
-        <x:v>45907.4178459144</x:v>
+        <x:v>45907.6675648148</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -973,7 +1027,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4157335995</x:v>
+        <x:v>45922.5073924769</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1005,7 +1059,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4201094907</x:v>
+        <x:v>45922.5350715278</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1037,7 +1091,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45913.8675672106</x:v>
+        <x:v>45907.4213356481</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1069,7 +1123,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.8230935185</x:v>
+        <x:v>45907.4178459144</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1101,7 +1155,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45913.9793434375</x:v>
+        <x:v>45906.4157335995</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1133,7 +1187,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45917.0618732292</x:v>
+        <x:v>45907.4201094907</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1165,7 +1219,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45917.0579123032</x:v>
+        <x:v>45913.8675672106</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1197,7 +1251,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45917.0626153125</x:v>
+        <x:v>45909.8230935185</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1214,6 +1268,198 @@
       <x:c r="R18" s="2" t="s"/>
       <x:c r="S18" s="2" t="s"/>
       <x:c r="T18" s="2" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:20">
+      <x:c r="A19" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="E19" s="3">
+        <x:v>45913.9793434375</x:v>
+      </x:c>
+      <x:c r="F19" s="2" t="s"/>
+      <x:c r="G19" s="2" t="s"/>
+      <x:c r="H19" s="2" t="s"/>
+      <x:c r="I19" s="2" t="s"/>
+      <x:c r="J19" s="2" t="s"/>
+      <x:c r="K19" s="2" t="s"/>
+      <x:c r="L19" s="2" t="s"/>
+      <x:c r="M19" s="2" t="s"/>
+      <x:c r="N19" s="2" t="s"/>
+      <x:c r="O19" s="2" t="s"/>
+      <x:c r="P19" s="2" t="s"/>
+      <x:c r="Q19" s="2" t="s"/>
+      <x:c r="R19" s="2" t="s"/>
+      <x:c r="S19" s="2" t="s"/>
+      <x:c r="T19" s="2" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:20">
+      <x:c r="A20" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="E20" s="3">
+        <x:v>45917.0618732292</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s"/>
+      <x:c r="G20" s="2" t="s"/>
+      <x:c r="H20" s="2" t="s"/>
+      <x:c r="I20" s="2" t="s"/>
+      <x:c r="J20" s="2" t="s"/>
+      <x:c r="K20" s="2" t="s"/>
+      <x:c r="L20" s="2" t="s"/>
+      <x:c r="M20" s="2" t="s"/>
+      <x:c r="N20" s="2" t="s"/>
+      <x:c r="O20" s="2" t="s"/>
+      <x:c r="P20" s="2" t="s"/>
+      <x:c r="Q20" s="2" t="s"/>
+      <x:c r="R20" s="2" t="s"/>
+      <x:c r="S20" s="2" t="s"/>
+      <x:c r="T20" s="2" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:20">
+      <x:c r="A21" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E21" s="3">
+        <x:v>45917.0579123032</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s"/>
+      <x:c r="G21" s="2" t="s"/>
+      <x:c r="H21" s="2" t="s"/>
+      <x:c r="I21" s="2" t="s"/>
+      <x:c r="J21" s="2" t="s"/>
+      <x:c r="K21" s="2" t="s"/>
+      <x:c r="L21" s="2" t="s"/>
+      <x:c r="M21" s="2" t="s"/>
+      <x:c r="N21" s="2" t="s"/>
+      <x:c r="O21" s="2" t="s"/>
+      <x:c r="P21" s="2" t="s"/>
+      <x:c r="Q21" s="2" t="s"/>
+      <x:c r="R21" s="2" t="s"/>
+      <x:c r="S21" s="2" t="s"/>
+      <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45922.5091222569</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45917.0626153125</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="E24" s="3">
+        <x:v>45922.537277662</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS249_Lecture-35852.xlsx
+++ b/downloaded_files/GENS249_Lecture-35852.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -235,6 +235,15 @@
   </x:si>
   <x:si>
     <x:t>Hana Mamdouh Gaber Abdo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210325</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يارا ساهر انور عبدالهادي احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YARA SAHER ANWAR ABDELHADY AHMED</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -350,7 +359,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -650,7 +659,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1460,6 +1469,38 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45922.7416597222</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS249_Lecture-35852.xlsx
+++ b/downloaded_files/GENS249_Lecture-35852.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -40,6 +40,15 @@
   </x:si>
   <x:si>
     <x:t>Arwa Sherif Ibrahim Nabil Mohammad Talaat Abo Hashish</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1190303</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد ايمن احمد عبدالباقى فوده</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Ayman Ahmed Abdelbakey Fouda</x:t>
   </x:si>
   <x:si>
     <x:t>4230139</x:t>
@@ -359,7 +368,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -659,7 +668,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -782,7 +791,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.6644641204</x:v>
+        <x:v>45924.4122915509</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -814,7 +823,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.4191208333</x:v>
+        <x:v>45906.6644641204</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -846,7 +855,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4308173264</x:v>
+        <x:v>45907.4191208333</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -878,7 +887,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45917.0605690625</x:v>
+        <x:v>45907.4308173264</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -910,7 +919,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45917.0571944097</x:v>
+        <x:v>45917.0605690625</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -942,7 +951,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4358638079</x:v>
+        <x:v>45917.0571944097</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -974,7 +983,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45922.5671027778</x:v>
+        <x:v>45907.4358638079</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1002,9 +1011,11 @@
       <x:c r="C10" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="D10" s="2" t="s"/>
+      <x:c r="D10" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6675648148</x:v>
+        <x:v>45922.5671027778</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1027,16 +1038,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D11" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
+      <x:c r="D11" s="2" t="s"/>
       <x:c r="E11" s="3">
-        <x:v>45922.5073924769</x:v>
+        <x:v>45907.6675648148</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1068,7 +1077,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45922.5350715278</x:v>
+        <x:v>45922.5073924769</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1100,7 +1109,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4213356481</x:v>
+        <x:v>45922.5350715278</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1132,7 +1141,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4178459144</x:v>
+        <x:v>45907.4213356481</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1164,7 +1173,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4157335995</x:v>
+        <x:v>45907.4178459144</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1196,7 +1205,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4201094907</x:v>
+        <x:v>45906.4157335995</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1228,7 +1237,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45913.8675672106</x:v>
+        <x:v>45907.4201094907</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1260,7 +1269,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.8230935185</x:v>
+        <x:v>45913.8675672106</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1292,7 +1301,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45913.9793434375</x:v>
+        <x:v>45909.8230935185</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1324,7 +1333,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45917.0618732292</x:v>
+        <x:v>45913.9793434375</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1356,7 +1365,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45917.0579123032</x:v>
+        <x:v>45917.0618732292</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1388,7 +1397,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45922.5091222569</x:v>
+        <x:v>45917.0579123032</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1420,7 +1429,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45917.0626153125</x:v>
+        <x:v>45922.5091222569</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1452,7 +1461,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45922.537277662</x:v>
+        <x:v>45917.0626153125</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1484,7 +1493,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45922.7416597222</x:v>
+        <x:v>45922.537277662</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1501,6 +1510,38 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45922.7416597222</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS249_Lecture-35852.xlsx
+++ b/downloaded_files/GENS249_Lecture-35852.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -60,15 +60,6 @@
     <x:t>Ahmed Mohamed Ahmed Mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1220223</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمد فاروق محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ahmed mohamed farouk mohamed mohamed soltan</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230157</x:t>
   </x:si>
   <x:si>
@@ -78,6 +69,15 @@
     <x:t>Adham ahmed mahmoud mamdouh Mahmoud</x:t>
   </x:si>
   <x:si>
+    <x:t>1230018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>اسامه سعيد النجار توفيق</x:t>
+  </x:si>
+  <x:si>
+    <x:t>osama said elnaggar</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230161</x:t>
   </x:si>
   <x:si>
@@ -96,13 +96,31 @@
     <x:t>Engy aboel magd abdel Ghany mahmoud Mekkawy</x:t>
   </x:si>
   <x:si>
-    <x:t>1230294</x:t>
-  </x:si>
-  <x:si>
-    <x:t>انطون مجدي يعقوب نظير</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ANTON</x:t>
+    <x:t>1210211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>تسنيم ايمن احمد فوده</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tasneem ayman ahmed abdulbaki fouda</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230177</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حبيبه سيد بدير احمد امين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Habiba Sayed Bedier Ahmed Amin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230186</x:t>
+  </x:si>
+  <x:si>
+    <x:t>رغد نادر محمد سيد عبد الحليم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Raghad Nader Mohamed Sayed Abdelhalim</x:t>
   </x:si>
   <x:si>
     <x:t>1200850</x:t>
@@ -192,6 +210,15 @@
     <x:t>Mohammed Abdelrahman Abdelhamid Heliel</x:t>
   </x:si>
   <x:si>
+    <x:t>1220280</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم سامح بديع لبيب رياض</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mariam Sameh badie labib</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230116</x:t>
   </x:si>
   <x:si>
@@ -244,6 +271,15 @@
   </x:si>
   <x:si>
     <x:t>Hana Mamdouh Gaber Abdo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210324</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يارا رفاعي ربيع رفاعي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yara Refaee Rabea Refaee</x:t>
   </x:si>
   <x:si>
     <x:t>1210325</x:t>
@@ -368,7 +404,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -668,7 +704,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -855,7 +891,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4191208333</x:v>
+        <x:v>45907.4308173264</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -887,7 +923,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4308173264</x:v>
+        <x:v>45927.4250777431</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -983,7 +1019,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4358638079</x:v>
+        <x:v>45927.4149631597</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1015,7 +1051,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45922.5671027778</x:v>
+        <x:v>45927.4675790856</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1043,9 +1079,11 @@
       <x:c r="C11" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="D11" s="2" t="s"/>
+      <x:c r="D11" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6675648148</x:v>
+        <x:v>45927.4190146644</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1068,16 +1106,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45922.5073924769</x:v>
+        <x:v>45922.5671027778</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1100,16 +1138,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
+      <x:c r="D13" s="2" t="s"/>
       <x:c r="E13" s="3">
-        <x:v>45922.5350715278</x:v>
+        <x:v>45907.6675648148</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1141,7 +1177,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4213356481</x:v>
+        <x:v>45922.5073924769</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1173,7 +1209,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4178459144</x:v>
+        <x:v>45922.5350715278</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1205,7 +1241,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4157335995</x:v>
+        <x:v>45907.4213356481</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1237,7 +1273,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4201094907</x:v>
+        <x:v>45907.4178459144</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1269,7 +1305,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45913.8675672106</x:v>
+        <x:v>45906.4157335995</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1301,7 +1337,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.8230935185</x:v>
+        <x:v>45907.4201094907</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1333,7 +1369,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45913.9793434375</x:v>
+        <x:v>45913.8675672106</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1365,7 +1401,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45917.0618732292</x:v>
+        <x:v>45909.8230935185</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1397,7 +1433,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45917.0579123032</x:v>
+        <x:v>45927.4577278935</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1429,7 +1465,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45922.5091222569</x:v>
+        <x:v>45913.9793434375</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1461,7 +1497,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45917.0626153125</x:v>
+        <x:v>45917.0618732292</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1493,7 +1529,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45922.537277662</x:v>
+        <x:v>45917.0579123032</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1525,7 +1561,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45922.7416597222</x:v>
+        <x:v>45922.5091222569</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1542,6 +1578,134 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45917.0626153125</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45922.537277662</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45927.4253345255</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45922.7416597222</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS249_Lecture-35852.xlsx
+++ b/downloaded_files/GENS249_Lecture-35852.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,6 +49,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Ayman Ahmed Abdelbakey Fouda</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد شريف حمدى عبدالله</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ِAhmed Sherif Hamdi Abdullah</x:t>
   </x:si>
   <x:si>
     <x:t>4230139</x:t>
@@ -404,7 +413,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -704,7 +713,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -859,7 +868,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.6644641204</x:v>
+        <x:v>45928.0428635764</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -891,7 +900,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4308173264</x:v>
+        <x:v>45906.6644641204</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -923,7 +932,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45927.4250777431</x:v>
+        <x:v>45907.4308173264</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -955,7 +964,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45917.0605690625</x:v>
+        <x:v>45927.4250777431</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -987,7 +996,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45917.0571944097</x:v>
+        <x:v>45917.0605690625</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1019,7 +1028,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45927.4149631597</x:v>
+        <x:v>45917.0571944097</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1051,7 +1060,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45927.4675790856</x:v>
+        <x:v>45927.4149631597</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1083,7 +1092,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.4190146644</x:v>
+        <x:v>45927.4675790856</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1115,7 +1124,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45922.5671027778</x:v>
+        <x:v>45927.4190146644</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1143,9 +1152,11 @@
       <x:c r="C13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s"/>
+      <x:c r="D13" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6675648148</x:v>
+        <x:v>45922.5671027778</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1168,16 +1179,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D14" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
+      <x:c r="D14" s="2" t="s"/>
       <x:c r="E14" s="3">
-        <x:v>45922.5073924769</x:v>
+        <x:v>45907.6675648148</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1209,7 +1218,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45922.5350715278</x:v>
+        <x:v>45922.5073924769</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1241,7 +1250,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4213356481</x:v>
+        <x:v>45922.5350715278</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1273,7 +1282,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4178459144</x:v>
+        <x:v>45907.4213356481</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1305,7 +1314,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4157335995</x:v>
+        <x:v>45907.4178459144</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1337,7 +1346,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4201094907</x:v>
+        <x:v>45906.4157335995</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1369,7 +1378,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45913.8675672106</x:v>
+        <x:v>45907.4201094907</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1401,7 +1410,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.8230935185</x:v>
+        <x:v>45913.8675672106</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1433,7 +1442,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.4577278935</x:v>
+        <x:v>45909.8230935185</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1465,7 +1474,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45913.9793434375</x:v>
+        <x:v>45927.4577278935</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1497,7 +1506,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45917.0618732292</x:v>
+        <x:v>45913.9793434375</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1529,7 +1538,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45917.0579123032</x:v>
+        <x:v>45917.0618732292</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1561,7 +1570,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45922.5091222569</x:v>
+        <x:v>45917.0579123032</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1593,7 +1602,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45917.0626153125</x:v>
+        <x:v>45922.5091222569</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1625,7 +1634,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45922.537277662</x:v>
+        <x:v>45917.0626153125</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1657,7 +1666,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45927.4253345255</x:v>
+        <x:v>45922.537277662</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1689,7 +1698,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45922.7416597222</x:v>
+        <x:v>45927.4253345255</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1706,6 +1715,38 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45922.7416597222</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS249_Lecture-35852.xlsx
+++ b/downloaded_files/GENS249_Lecture-35852.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -190,15 +190,6 @@
   </x:si>
   <x:si>
     <x:t>Karim Magdy Mounir</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230228</x:t>
-  </x:si>
-  <x:si>
-    <x:t>كريم وائل إسماعيل يوسف ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>karim wael ismaiel yousef Ibrahim</x:t>
   </x:si>
   <x:si>
     <x:t>1230245</x:t>
@@ -413,7 +404,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -713,7 +704,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1378,7 +1369,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4201094907</x:v>
+        <x:v>45913.8675672106</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1410,7 +1401,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45913.8675672106</x:v>
+        <x:v>45909.8230935185</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1442,7 +1433,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.8230935185</x:v>
+        <x:v>45927.4577278935</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1474,7 +1465,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45927.4577278935</x:v>
+        <x:v>45913.9793434375</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1506,7 +1497,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45913.9793434375</x:v>
+        <x:v>45917.0618732292</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1538,7 +1529,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45917.0618732292</x:v>
+        <x:v>45917.0579123032</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1570,7 +1561,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45917.0579123032</x:v>
+        <x:v>45922.5091222569</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1602,7 +1593,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45922.5091222569</x:v>
+        <x:v>45917.0626153125</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1634,7 +1625,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45917.0626153125</x:v>
+        <x:v>45922.537277662</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1666,7 +1657,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45922.537277662</x:v>
+        <x:v>45927.4253345255</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1698,7 +1689,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45927.4253345255</x:v>
+        <x:v>45922.7416597222</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1715,38 +1706,6 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45922.7416597222</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS249_Lecture-35852.xlsx
+++ b/downloaded_files/GENS249_Lecture-35852.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -103,6 +103,15 @@
   </x:si>
   <x:si>
     <x:t>Engy aboel magd abdel Ghany mahmoud Mekkawy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230294</x:t>
+  </x:si>
+  <x:si>
+    <x:t>انطون مجدي يعقوب نظير</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ANTON</x:t>
   </x:si>
   <x:si>
     <x:t>1210211</x:t>
@@ -404,7 +413,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -704,7 +713,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1051,7 +1060,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45927.4149631597</x:v>
+        <x:v>45929.0045688657</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1083,7 +1092,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.4675790856</x:v>
+        <x:v>45927.4149631597</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1115,7 +1124,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.4190146644</x:v>
+        <x:v>45927.4675790856</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1147,7 +1156,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45922.5671027778</x:v>
+        <x:v>45927.4190146644</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1175,9 +1184,11 @@
       <x:c r="C14" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s"/>
+      <x:c r="D14" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6675648148</x:v>
+        <x:v>45922.5671027778</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1200,16 +1211,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
+      <x:c r="D15" s="2" t="s"/>
       <x:c r="E15" s="3">
-        <x:v>45922.5073924769</x:v>
+        <x:v>45907.6675648148</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1241,7 +1250,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45922.5350715278</x:v>
+        <x:v>45922.5073924769</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1273,7 +1282,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4213356481</x:v>
+        <x:v>45922.5350715278</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1305,7 +1314,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4178459144</x:v>
+        <x:v>45907.4213356481</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1337,7 +1346,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4157335995</x:v>
+        <x:v>45907.4178459144</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1369,7 +1378,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45913.8675672106</x:v>
+        <x:v>45906.4157335995</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1401,7 +1410,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.8230935185</x:v>
+        <x:v>45913.8675672106</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1433,7 +1442,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.4577278935</x:v>
+        <x:v>45909.8230935185</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1465,7 +1474,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45913.9793434375</x:v>
+        <x:v>45927.4577278935</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1497,7 +1506,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45917.0618732292</x:v>
+        <x:v>45913.9793434375</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1529,7 +1538,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45917.0579123032</x:v>
+        <x:v>45917.0618732292</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1561,7 +1570,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45922.5091222569</x:v>
+        <x:v>45917.0579123032</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1593,7 +1602,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45917.0626153125</x:v>
+        <x:v>45922.5091222569</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1625,7 +1634,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45922.537277662</x:v>
+        <x:v>45917.0626153125</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1657,7 +1666,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45927.4253345255</x:v>
+        <x:v>45922.537277662</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1689,7 +1698,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45922.7416597222</x:v>
+        <x:v>45927.4253345255</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1706,6 +1715,38 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45922.7416597222</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS249_Lecture-35852.xlsx
+++ b/downloaded_files/GENS249_Lecture-35852.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -183,6 +183,15 @@
     <x:t>abdalrahman esam mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>1230207</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على محمد سعيد عبدالعزيز محمد ثابت</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Mohamed Said Abdelaziz Mohamed Sabet</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230072</x:t>
   </x:si>
   <x:si>
@@ -192,15 +201,6 @@
     <x:t>Omar Ahmed Raafat Ahmed</x:t>
   </x:si>
   <x:si>
-    <x:t>1210070</x:t>
-  </x:si>
-  <x:si>
-    <x:t>كريم مجدى منير محمود العكام</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Karim Magdy Mounir</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230245</x:t>
   </x:si>
   <x:si>
@@ -280,6 +280,15 @@
   </x:si>
   <x:si>
     <x:t>Hana Mamdouh Gaber Abdo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230130</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يارا رامى عصام الدين عبد العزيز عبد الحق</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yara Ramy Essam El Din Abd El Aziz Abd El Haa</x:t>
   </x:si>
   <x:si>
     <x:t>1210324</x:t>
@@ -413,7 +422,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -713,7 +722,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1346,7 +1355,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4178459144</x:v>
+        <x:v>45929.5427849537</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1378,7 +1387,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4157335995</x:v>
+        <x:v>45907.4178459144</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1698,7 +1707,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45927.4253345255</x:v>
+        <x:v>45929.5373251505</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1730,7 +1739,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45922.7416597222</x:v>
+        <x:v>45927.4253345255</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1747,6 +1756,38 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45922.7416597222</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS249_Lecture-35852.xlsx
+++ b/downloaded_files/GENS249_Lecture-35852.xlsx
@@ -1101,7 +1101,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.4149631597</x:v>
+        <x:v>45934.7812092245</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>

--- a/downloaded_files/GENS249_Lecture-35852.xlsx
+++ b/downloaded_files/GENS249_Lecture-35852.xlsx
@@ -180,7 +180,7 @@
     <x:t>عبدالرحمن عصام محمد اسماعيل</x:t>
   </x:si>
   <x:si>
-    <x:t>abdalrahman esam mohamed</x:t>
+    <x:t>Abdalrahman Esam Mohamed Ismail Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1230207</x:t>
@@ -198,7 +198,7 @@
     <x:t>عمر احمد رأفت احمد محمود</x:t>
   </x:si>
   <x:si>
-    <x:t>Omar Ahmed Raafat Ahmed</x:t>
+    <x:t>Omar Ahmed Raafat Ahmed Mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>1230245</x:t>
